--- a/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2962C84-A9A2-5848-96E7-AE4FC4F86EA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DBC3DBF8-6211-BE44-835F-7AF2A607AC86}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21160" windowWidth="19200" xWindow="70400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-16860"/>
   </bookViews>
   <sheets>
-    <sheet name="#default" sheetId="5" r:id="rId1"/>
-    <sheet name="jmeter_config" sheetId="4" r:id="rId2"/>
+    <sheet name="#default" r:id="rId1" sheetId="5"/>
+    <sheet name="jmeter_config" r:id="rId2" sheetId="4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -63,7 +63,7 @@
     <author>tc={B514CA17-FF79-F04C-8C6C-0B133A664AA6}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{9284BB71-0E4E-6444-91B6-BB4B0DE1136E}">
+    <comment authorId="0" ref="A9" shapeId="0" xr:uid="{9284BB71-0E4E-6444-91B6-BB4B0DE1136E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     make sure nexial doesn't proactively substitute variables</t>
       </text>
     </comment>
-    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{6657DA26-C40B-534A-86FE-908AED529355}">
+    <comment authorId="1" ref="A10" shapeId="0" xr:uid="{6657DA26-C40B-534A-86FE-908AED529355}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     when comparing current and new variables, comparison output in JSON is easier to parse for log generation.</t>
       </text>
     </comment>
-    <comment ref="A11" authorId="2" shapeId="0" xr:uid="{1CC18FA0-47EB-2541-AC8F-69BD91A095FD}">
+    <comment authorId="2" ref="A11" shapeId="0" xr:uid="{1CC18FA0-47EB-2541-AC8F-69BD91A095FD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
     when comparing current and new variables, we don’t care about those that matched.</t>
       </text>
     </comment>
-    <comment ref="A21" authorId="3" shapeId="0" xr:uid="{B514CA17-FF79-F04C-8C6C-0B133A664AA6}">
+    <comment authorId="3" ref="A21" shapeId="0" xr:uid="{B514CA17-FF79-F04C-8C6C-0B133A664AA6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>true</t>
   </si>
@@ -174,209 +174,222 @@
     <t>\$\{(?!__P\)[0-9A-Za-z_\-\.\,]+\}</t>
   </si>
   <si>
+    <t>testname/Regex 1</t>
+  </si>
+  <si>
+    <t>testname.prefix</t>
+  </si>
+  <si>
+    <t>testname/</t>
+  </si>
+  <si>
+    <t>variable.prefix</t>
+  </si>
+  <si>
+    <t>variable/</t>
+  </si>
+  <si>
+    <t>variable.regex</t>
+  </si>
+  <si>
+    <t>target.location</t>
+  </si>
+  <si>
+    <t>testname/User Defined Variables</t>
+  </si>
+  <si>
+    <t>testname/ForEach Controller</t>
+  </si>
+  <si>
+    <t>testname/Sample 2</t>
+  </si>
+  <si>
+    <t>testname/Regex 2</t>
+  </si>
+  <si>
+    <t>testname/ForEach 2</t>
+  </si>
+  <si>
+    <t>testname/For 2</t>
+  </si>
+  <si>
+    <t>testname/View Results in Table</t>
+  </si>
+  <si>
+    <t>variable/responseCode</t>
+  </si>
+  <si>
+    <t>variable/returnVar</t>
+  </si>
+  <si>
+    <t>variable/sleepTime</t>
+  </si>
+  <si>
+    <t>snr.configFile</t>
+  </si>
+  <si>
+    <t>snr.prefix</t>
+  </si>
+  <si>
+    <t>search/</t>
+  </si>
+  <si>
+    <t>search/configFile</t>
+  </si>
+  <si>
+    <t>jmeter-snr.properties</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/jmeter-snr.properties</t>
+  </si>
+  <si>
+    <t>vars.current</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/vars.current.txt</t>
+  </si>
+  <si>
+    <t>vars.new</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/vars.new.txt</t>
+  </si>
+  <si>
+    <t>nexial.compare.jsonReport</t>
+  </si>
+  <si>
+    <t>nexial.compare.reportMatch</t>
+  </si>
+  <si>
+    <t>vars.logs</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/jmeter-variables.log</t>
+  </si>
+  <si>
+    <t>vars.jp.expectedMissing</t>
+  </si>
+  <si>
+    <t>vars.jp.actualMissing</t>
+  </si>
+  <si>
+    <t>vars.jp.expectedRenamed</t>
+  </si>
+  <si>
+    <t>vars.jp.actualRenamed</t>
+  </si>
+  <si>
+    <t>details[actual=REGEX:.+MISSING].expected</t>
+  </si>
+  <si>
+    <t>details[expected=REGEX:.+MISSING].actual</t>
+  </si>
+  <si>
+    <t>variable/status</t>
+  </si>
+  <si>
+    <t>&gt;&gt; CREATED:</t>
+  </si>
+  <si>
+    <t>vars.heading-removed</t>
+  </si>
+  <si>
+    <t>&gt;&gt; REMOVED:</t>
+  </si>
+  <si>
+    <t>vars.heading-renamed</t>
+  </si>
+  <si>
+    <t>&gt;&gt; POSSIBLY RENAMED:</t>
+  </si>
+  <si>
+    <t>vars.heading-created</t>
+  </si>
+  <si>
+    <t>testname/Loop Controller</t>
+  </si>
+  <si>
+    <t>testname/ForEach 1</t>
+  </si>
+  <si>
+    <t>target: the Jmeter artifacts</t>
+  </si>
+  <si>
+    <t>testname: each JMX nodes</t>
+  </si>
+  <si>
+    <t>variable: each defined variables in JMX file, but not those designated for Jmeter (i.e. ${__P(…)})</t>
+  </si>
+  <si>
+    <t>snr: custom search-and-replace configuration against target JMX file. Use this to perform text-based search-replacement tasks.</t>
+  </si>
+  <si>
+    <t>vars: the comparison between the current and new variables</t>
+  </si>
+  <si>
+    <t>details[message=REGEX:.*mismatch.+].expected</t>
+  </si>
+  <si>
+    <t>details[message=REGEX:.*mismatch.+].actual</t>
+  </si>
+  <si>
+    <t>testname/Test Plan</t>
+  </si>
+  <si>
+    <t>testname/View Results Tree</t>
+  </si>
+  <si>
+    <t>variable/returnVar2</t>
+  </si>
+  <si>
+    <t>target.maxRow</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>testname.xpath_esc</t>
+  </si>
+  <si>
+    <t>//*[string\(@testname\) != '']/@testname</t>
+  </si>
+  <si>
+    <t>target.newLocation</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/jmeter-new.jmx</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>nexial.var.ignored</t>
+  </si>
+  <si>
+    <t>testname/HTTP Request Defaults</t>
+  </si>
+  <si>
+    <t>testname/HTTP Request</t>
+  </si>
+  <si>
+    <t>testname/For 123</t>
+  </si>
+  <si>
+    <t>testname/XYZ</t>
+  </si>
+  <si>
     <t>testname/Sample 1</t>
   </si>
   <si>
-    <t>testname/Regex 1</t>
-  </si>
-  <si>
-    <t>testname.prefix</t>
-  </si>
-  <si>
-    <t>testname/</t>
-  </si>
-  <si>
-    <t>variable.prefix</t>
-  </si>
-  <si>
-    <t>variable/</t>
-  </si>
-  <si>
-    <t>variable.regex</t>
-  </si>
-  <si>
-    <t>target.location</t>
-  </si>
-  <si>
-    <t>testname/User Defined Variables</t>
-  </si>
-  <si>
-    <t>testname/ForEach Controller</t>
-  </si>
-  <si>
     <t>testname/For 1</t>
-  </si>
-  <si>
-    <t>testname/Sample 2</t>
-  </si>
-  <si>
-    <t>testname/Regex 2</t>
-  </si>
-  <si>
-    <t>testname/ForEach 2</t>
-  </si>
-  <si>
-    <t>testname/For 2</t>
-  </si>
-  <si>
-    <t>testname/View Results in Table</t>
-  </si>
-  <si>
-    <t>variable/responseCode</t>
-  </si>
-  <si>
-    <t>variable/returnVar</t>
-  </si>
-  <si>
-    <t>variable/sleepTime</t>
-  </si>
-  <si>
-    <t>snr.configFile</t>
-  </si>
-  <si>
-    <t>snr.prefix</t>
-  </si>
-  <si>
-    <t>search/</t>
-  </si>
-  <si>
-    <t>search/configFile</t>
-  </si>
-  <si>
-    <t>jmeter-snr.properties</t>
-  </si>
-  <si>
-    <t>$(syspath|data|fullpath)/jmeter-snr.properties</t>
-  </si>
-  <si>
-    <t>vars.current</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/vars.current.txt</t>
-  </si>
-  <si>
-    <t>vars.new</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/vars.new.txt</t>
-  </si>
-  <si>
-    <t>nexial.compare.jsonReport</t>
-  </si>
-  <si>
-    <t>nexial.compare.reportMatch</t>
-  </si>
-  <si>
-    <t>vars.logs</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/jmeter-variables.log</t>
-  </si>
-  <si>
-    <t>vars.jp.expectedMissing</t>
-  </si>
-  <si>
-    <t>vars.jp.actualMissing</t>
-  </si>
-  <si>
-    <t>vars.jp.expectedRenamed</t>
-  </si>
-  <si>
-    <t>vars.jp.actualRenamed</t>
-  </si>
-  <si>
-    <t>details[actual=REGEX:.+MISSING].expected</t>
-  </si>
-  <si>
-    <t>details[expected=REGEX:.+MISSING].actual</t>
-  </si>
-  <si>
-    <t>variable/status</t>
-  </si>
-  <si>
-    <t>&gt;&gt; CREATED:</t>
-  </si>
-  <si>
-    <t>vars.heading-removed</t>
-  </si>
-  <si>
-    <t>&gt;&gt; REMOVED:</t>
-  </si>
-  <si>
-    <t>vars.heading-renamed</t>
-  </si>
-  <si>
-    <t>&gt;&gt; POSSIBLY RENAMED:</t>
-  </si>
-  <si>
-    <t>vars.heading-created</t>
-  </si>
-  <si>
-    <t>testname/Loop Controller</t>
-  </si>
-  <si>
-    <t>testname/ForEach 1</t>
-  </si>
-  <si>
-    <t>target: the Jmeter artifacts</t>
-  </si>
-  <si>
-    <t>testname: each JMX nodes</t>
-  </si>
-  <si>
-    <t>variable: each defined variables in JMX file, but not those designated for Jmeter (i.e. ${__P(…)})</t>
-  </si>
-  <si>
-    <t>snr: custom search-and-replace configuration against target JMX file. Use this to perform text-based search-replacement tasks.</t>
-  </si>
-  <si>
-    <t>vars: the comparison between the current and new variables</t>
-  </si>
-  <si>
-    <t>details[message=REGEX:.*mismatch.+].expected</t>
-  </si>
-  <si>
-    <t>details[message=REGEX:.*mismatch.+].actual</t>
-  </si>
-  <si>
-    <t>testname/Test Plan</t>
-  </si>
-  <si>
-    <t>testname/View Results Tree</t>
-  </si>
-  <si>
-    <t>variable/returnVar2</t>
-  </si>
-  <si>
-    <t>target.maxRow</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>testname.xpath_esc</t>
-  </si>
-  <si>
-    <t>//*[string\(@testname\) != '']/@testname</t>
-  </si>
-  <si>
-    <t>target.newLocation</t>
-  </si>
-  <si>
-    <t>$(syspath|out|fullpath)/jmeter-new.jmx</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>nexial.var.ignored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="0"/>
+  <fonts count="105">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,8 +450,614 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="170">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +1100,926 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="177">
     <border>
       <left/>
       <right/>
@@ -600,134 +2137,2113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="124">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="6" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="6" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="6" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="6" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="5" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="4" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="3" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="7" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="10" fontId="9" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="13" fontId="11" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="16" fontId="12" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="19" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="25" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="28" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="31" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="31" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="44" fillId="37" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="48" fillId="40" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="43" fontId="28" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="52" fillId="46" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="56" fillId="52" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="60" fillId="55" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="58" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="64" fillId="58" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="72" fillId="64" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="76" fillId="67" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="70" fontId="44" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="80" fillId="73" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="76" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="84" fillId="79" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="88" fillId="82" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="85" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="92" fillId="85" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="88" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="100" fillId="91" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="104" fillId="94" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="97" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="108" fillId="100" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="103" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="112" fillId="106" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="116" fillId="109" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="112" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="120" fillId="112" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="115" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="128" fillId="118" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="132" fillId="121" fontId="75" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="124" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="136" fillId="127" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="130" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="140" fillId="133" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="144" fillId="136" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="139" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="148" fillId="139" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="142" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="145" borderId="156" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="148" borderId="160" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="151" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="154" borderId="164" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="157" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="160" borderId="168" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="163" borderId="172" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="166" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="166" borderId="176" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="169" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -847,7 +4363,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF9FC9C"/>
@@ -872,7 +4388,7 @@
       <sheetName val="#system"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData refreshError="1" sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -889,10 +4405,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -927,7 +4443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -962,7 +4478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1056,21 +4572,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1087,7 +4603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1139,7 +4655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1163,21 +4679,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E17CC-75F9-624B-9DC2-6C8A892694B0}">
-  <dimension ref="A1:AAA39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E17CC-75F9-624B-9DC2-6C8A892694B0}">
+  <dimension ref="A1:AAB39"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScalePageLayoutView="125">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="63.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="63.1640625" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="10" max="27" customWidth="true" style="3" width="21.1640625" collapsed="true"/>
+    <col min="28" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="1" spans="1:703">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +4705,7 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="2" spans="1:703">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +4715,7 @@
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="3" spans="1:703">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +4725,7 @@
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="4" spans="1:703">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +4735,7 @@
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="5" spans="1:703">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +4745,7 @@
       <c r="HA5" s="6"/>
       <c r="AAA5" s="6"/>
     </row>
-    <row r="6" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="6" spans="1:703">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +4755,7 @@
       <c r="HA6" s="6"/>
       <c r="AAA6" s="6"/>
     </row>
-    <row r="7" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="7" spans="1:703">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +4765,7 @@
       <c r="HA7" s="6"/>
       <c r="AAA7" s="6"/>
     </row>
-    <row r="8" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="8" spans="1:703">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +4775,7 @@
       <c r="HA8" s="6"/>
       <c r="AAA8" s="6"/>
     </row>
-    <row r="9" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="9" spans="1:703">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1267,9 +4785,9 @@
       <c r="HA9" s="6"/>
       <c r="AAA9" s="6"/>
     </row>
-    <row r="10" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1277,9 +4795,9 @@
       <c r="HA10" s="6"/>
       <c r="AAA10" s="6"/>
     </row>
-    <row r="11" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="11" spans="1:703" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
@@ -1290,9 +4808,9 @@
       <c r="HA11" s="6"/>
       <c r="AAA11" s="6"/>
     </row>
-    <row r="12" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="12" spans="1:703" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1302,9 +4820,9 @@
       <c r="HA12" s="6"/>
       <c r="AAA12" s="6"/>
     </row>
-    <row r="13" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="13" spans="1:703">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
@@ -1315,12 +4833,12 @@
       <c r="HA13" s="6"/>
       <c r="AAA13" s="6"/>
     </row>
-    <row r="14" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="14" spans="1:703">
       <c r="A14" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1328,7 +4846,7 @@
       <c r="HA14" s="6"/>
       <c r="AAA14" s="6"/>
     </row>
-    <row r="15" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="15" spans="1:703">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1338,7 +4856,7 @@
       <c r="HA15" s="6"/>
       <c r="AAA15" s="6"/>
     </row>
-    <row r="16" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="16" spans="1:703">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1348,12 +4866,12 @@
       <c r="HA16" s="4"/>
       <c r="AAA16" s="5"/>
     </row>
-    <row r="17" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="17" spans="1:703">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1361,12 +4879,12 @@
       <c r="HA17" s="4"/>
       <c r="AAA17" s="5"/>
     </row>
-    <row r="18" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="18" spans="1:703" thickBot="1">
       <c r="A18" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1374,9 +4892,9 @@
       <c r="HA18" s="4"/>
       <c r="AAA18" s="5"/>
     </row>
-    <row r="19" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="19" spans="1:703" thickBot="1">
       <c r="A19" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1384,7 +4902,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="20" spans="1:703">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -1395,31 +4913,31 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="21" spans="1:703">
       <c r="A21" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="22" spans="1:703" thickBot="1">
       <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="23" spans="1:703" thickBot="1">
       <c r="A23" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1427,9 +4945,9 @@
       <c r="E23" s="20"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="24" spans="1:703">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>23</v>
@@ -1438,20 +4956,20 @@
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="25" spans="1:703" thickBot="1">
       <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="26" spans="1:703" thickBot="1">
       <c r="A26" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1459,31 +4977,31 @@
       <c r="E26" s="19"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="27" spans="1:703">
       <c r="A27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="28" spans="1:703" thickBot="1">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:703" ht="22" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="22" r="29" spans="1:703" thickBot="1">
       <c r="A29" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1491,415 +5009,443 @@
       <c r="E29" s="18"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="30" spans="1:703">
       <c r="A30" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:703" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="31" spans="1:703">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:703" ht="22" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="32" spans="1:703">
       <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22" r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="22" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="22" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="22" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row customHeight="1" ht="22" r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="22" customHeight="1">
-      <c r="A37" s="1" t="s">
+    <row customHeight="1" ht="22" r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="22" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="22" customHeight="1">
+    <row customHeight="1" ht="22" r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule dxfId="8" operator="beginsWith" priority="18" stopIfTrue="1" text="nexial.scope." type="beginsWith">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule dxfId="7" operator="beginsWith" priority="19" stopIfTrue="1" text="nexial." type="beginsWith">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="6" priority="21" stopIfTrue="1">
+    <cfRule dxfId="6" priority="21" stopIfTrue="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="45">
+    <cfRule dxfId="5" priority="45" type="notContainsBlanks">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F015A-CE5F-4244-AD84-1F1626A9E13B}">
-  <dimension ref="A1:AAA100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F015A-CE5F-4244-AD84-1F1626A9E13B}">
+  <dimension ref="A1:AAB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScalePageLayoutView="125">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.83203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="29.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="40.83203125" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="10" max="27" customWidth="true" style="3" width="21.1640625" collapsed="true"/>
+    <col min="28" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703" ht="23" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="28"/>
+    <row customHeight="1" ht="23" r="1" spans="1:703">
+      <c r="A1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="2" spans="1:703">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="3" spans="1:703">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="4" spans="1:703">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="5" spans="1:703">
       <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="6" spans="1:703">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="7" spans="1:703">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="8" spans="1:703">
       <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="9" spans="1:703">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="10" spans="1:703">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="11" spans="1:703">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="12" spans="1:703">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="13" spans="1:703">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="14" spans="1:703">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="15" spans="1:703">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="16" spans="1:703">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703" ht="23" customHeight="1">
-      <c r="A11" t="s">
+    </row>
+    <row customHeight="1" ht="23" r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:703" ht="23" customHeight="1">
-      <c r="A12" t="s">
+    <row customHeight="1" ht="23" r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:703" ht="23" customHeight="1">
-      <c r="A13" t="s">
+    <row customHeight="1" ht="23" r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703" ht="23" customHeight="1">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703" ht="23" customHeight="1">
-      <c r="A15" t="s">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703" ht="23" customHeight="1">
-      <c r="A16" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23" customHeight="1">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="26" t="s">
+    <row customHeight="1" ht="23" r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23" customHeight="1">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23" customHeight="1">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23" customHeight="1">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23" customHeight="1">
-      <c r="A21" t="s">
+    <row customHeight="1" ht="23" r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23" customHeight="1"/>
-    <row r="23" spans="1:2" ht="23" customHeight="1"/>
-    <row r="24" spans="1:2" ht="23" customHeight="1"/>
-    <row r="25" spans="1:2" ht="23" customHeight="1"/>
-    <row r="26" spans="1:2" ht="23" customHeight="1"/>
-    <row r="27" spans="1:2" ht="23" customHeight="1"/>
-    <row r="28" spans="1:2" ht="23" customHeight="1"/>
-    <row r="29" spans="1:2" ht="23" customHeight="1"/>
-    <row r="30" spans="1:2" ht="23" customHeight="1"/>
-    <row r="31" spans="1:2" ht="23" customHeight="1"/>
-    <row r="32" spans="1:2" ht="23" customHeight="1"/>
-    <row r="33" ht="23" customHeight="1"/>
-    <row r="34" ht="23" customHeight="1"/>
-    <row r="35" ht="23" customHeight="1"/>
-    <row r="36" ht="23" customHeight="1"/>
-    <row r="37" ht="23" customHeight="1"/>
-    <row r="38" ht="23" customHeight="1"/>
-    <row r="39" ht="23" customHeight="1"/>
-    <row r="40" ht="23" customHeight="1"/>
-    <row r="41" ht="23" customHeight="1"/>
-    <row r="42" ht="23" customHeight="1"/>
-    <row r="43" ht="23" customHeight="1"/>
-    <row r="44" ht="23" customHeight="1"/>
-    <row r="45" ht="23" customHeight="1"/>
-    <row r="46" ht="23" customHeight="1"/>
-    <row r="47" ht="23" customHeight="1"/>
-    <row r="48" ht="23" customHeight="1"/>
-    <row r="49" ht="23" customHeight="1"/>
-    <row r="50" ht="23" customHeight="1"/>
-    <row r="51" ht="23" customHeight="1"/>
-    <row r="52" ht="23" customHeight="1"/>
-    <row r="53" ht="23" customHeight="1"/>
-    <row r="54" ht="23" customHeight="1"/>
-    <row r="55" ht="23" customHeight="1"/>
-    <row r="56" ht="23" customHeight="1"/>
-    <row r="57" ht="23" customHeight="1"/>
-    <row r="58" ht="23" customHeight="1"/>
-    <row r="59" ht="23" customHeight="1"/>
-    <row r="60" ht="23" customHeight="1"/>
-    <row r="61" ht="23" customHeight="1"/>
-    <row r="62" ht="23" customHeight="1"/>
-    <row r="63" ht="23" customHeight="1"/>
-    <row r="64" ht="23" customHeight="1"/>
-    <row r="65" ht="23" customHeight="1"/>
-    <row r="66" ht="23" customHeight="1"/>
-    <row r="67" ht="23" customHeight="1"/>
-    <row r="68" ht="23" customHeight="1"/>
-    <row r="69" ht="23" customHeight="1"/>
-    <row r="70" ht="23" customHeight="1"/>
-    <row r="71" ht="23" customHeight="1"/>
-    <row r="72" ht="23" customHeight="1"/>
-    <row r="73" ht="23" customHeight="1"/>
-    <row r="74" ht="23" customHeight="1"/>
-    <row r="75" ht="23" customHeight="1"/>
-    <row r="76" ht="23" customHeight="1"/>
-    <row r="77" ht="23" customHeight="1"/>
-    <row r="78" ht="23" customHeight="1"/>
-    <row r="79" ht="23" customHeight="1"/>
-    <row r="80" ht="23" customHeight="1"/>
-    <row r="81" ht="23" customHeight="1"/>
-    <row r="82" ht="23" customHeight="1"/>
-    <row r="83" ht="23" customHeight="1"/>
-    <row r="84" ht="23" customHeight="1"/>
-    <row r="85" ht="23" customHeight="1"/>
-    <row r="86" ht="23" customHeight="1"/>
-    <row r="87" ht="23" customHeight="1"/>
-    <row r="88" ht="23" customHeight="1"/>
-    <row r="89" ht="23" customHeight="1"/>
-    <row r="90" ht="23" customHeight="1"/>
-    <row r="91" ht="23" customHeight="1"/>
-    <row r="92" ht="23" customHeight="1"/>
-    <row r="93" ht="23" customHeight="1"/>
-    <row r="94" ht="23" customHeight="1"/>
-    <row r="95" ht="23" customHeight="1"/>
-    <row r="96" ht="23" customHeight="1"/>
-    <row r="97" ht="23" customHeight="1"/>
-    <row r="98" ht="23" customHeight="1"/>
-    <row r="99" ht="23" customHeight="1"/>
-    <row r="100" ht="23" customHeight="1"/>
+    </row>
+    <row customHeight="1" ht="23" r="26" spans="1:2"/>
+    <row customHeight="1" ht="23" r="27" spans="1:2"/>
+    <row customHeight="1" ht="23" r="28" spans="1:2"/>
+    <row customHeight="1" ht="23" r="29" spans="1:2"/>
+    <row customHeight="1" ht="23" r="30" spans="1:2"/>
+    <row customHeight="1" ht="23" r="31" spans="1:2"/>
+    <row customHeight="1" ht="23" r="32" spans="1:2"/>
+    <row customHeight="1" ht="23" r="33"/>
+    <row customHeight="1" ht="23" r="34"/>
+    <row customHeight="1" ht="23" r="35"/>
+    <row customHeight="1" ht="23" r="36"/>
+    <row customHeight="1" ht="23" r="37"/>
+    <row customHeight="1" ht="23" r="38"/>
+    <row customHeight="1" ht="23" r="39"/>
+    <row customHeight="1" ht="23" r="40"/>
+    <row customHeight="1" ht="23" r="41"/>
+    <row customHeight="1" ht="23" r="42"/>
+    <row customHeight="1" ht="23" r="43"/>
+    <row customHeight="1" ht="23" r="44"/>
+    <row customHeight="1" ht="23" r="45"/>
+    <row customHeight="1" ht="23" r="46"/>
+    <row customHeight="1" ht="23" r="47"/>
+    <row customHeight="1" ht="23" r="48"/>
+    <row customHeight="1" ht="23" r="49"/>
+    <row customHeight="1" ht="23" r="50"/>
+    <row customHeight="1" ht="23" r="51"/>
+    <row customHeight="1" ht="23" r="52"/>
+    <row customHeight="1" ht="23" r="53"/>
+    <row customHeight="1" ht="23" r="54"/>
+    <row customHeight="1" ht="23" r="55"/>
+    <row customHeight="1" ht="23" r="56"/>
+    <row customHeight="1" ht="23" r="57"/>
+    <row customHeight="1" ht="23" r="58"/>
+    <row customHeight="1" ht="23" r="59"/>
+    <row customHeight="1" ht="23" r="60"/>
+    <row customHeight="1" ht="23" r="61"/>
+    <row customHeight="1" ht="23" r="62"/>
+    <row customHeight="1" ht="23" r="63"/>
+    <row customHeight="1" ht="23" r="64"/>
+    <row customHeight="1" ht="23" r="65"/>
+    <row customHeight="1" ht="23" r="66"/>
+    <row customHeight="1" ht="23" r="67"/>
+    <row customHeight="1" ht="23" r="68"/>
+    <row customHeight="1" ht="23" r="69"/>
+    <row customHeight="1" ht="23" r="70"/>
+    <row customHeight="1" ht="23" r="71"/>
+    <row customHeight="1" ht="23" r="72"/>
+    <row customHeight="1" ht="23" r="73"/>
+    <row customHeight="1" ht="23" r="74"/>
+    <row customHeight="1" ht="23" r="75"/>
+    <row customHeight="1" ht="23" r="76"/>
+    <row customHeight="1" ht="23" r="77"/>
+    <row customHeight="1" ht="23" r="78"/>
+    <row customHeight="1" ht="23" r="79"/>
+    <row customHeight="1" ht="23" r="80"/>
+    <row customHeight="1" ht="23" r="81"/>
+    <row customHeight="1" ht="23" r="82"/>
+    <row customHeight="1" ht="23" r="83"/>
+    <row customHeight="1" ht="23" r="84"/>
+    <row customHeight="1" ht="23" r="85"/>
+    <row customHeight="1" ht="23" r="86"/>
+    <row customHeight="1" ht="23" r="87"/>
+    <row customHeight="1" ht="23" r="88"/>
+    <row customHeight="1" ht="23" r="89"/>
+    <row customHeight="1" ht="23" r="90"/>
+    <row customHeight="1" ht="23" r="91"/>
+    <row customHeight="1" ht="23" r="92"/>
+    <row customHeight="1" ht="23" r="93"/>
+    <row customHeight="1" ht="23" r="94"/>
+    <row customHeight="1" ht="23" r="95"/>
+    <row customHeight="1" ht="23" r="96"/>
+    <row customHeight="1" ht="23" r="97"/>
+    <row customHeight="1" ht="23" r="98"/>
+    <row customHeight="1" ht="23" r="99"/>
+    <row customHeight="1" ht="23" r="100"/>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule dxfId="4" operator="beginsWith" priority="1" stopIfTrue="1" text="nexial.scope." type="beginsWith">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule dxfId="3" operator="beginsWith" priority="2" stopIfTrue="1" text="nexial." type="beginsWith">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule dxfId="2" priority="3" stopIfTrue="1" type="notContainsBlanks">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule dxfId="1" priority="4" stopIfTrue="1" type="expression">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule dxfId="0" priority="5" type="notContainsBlanks">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE844B-44D8-6D4F-9412-56B0ECC12D28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF339D2B-FBD9-3E4F-9405-A570628FBD2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34140" yWindow="440" windowWidth="17060" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>true</t>
   </si>
@@ -171,9 +171,6 @@
     <t>(empty)</t>
   </si>
   <si>
-    <t>\$\{(?!__P\)[0-9A-Za-z_\-\.\,]+\}</t>
-  </si>
-  <si>
     <t>testname/Regex 1</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>variable/returnVar</t>
   </si>
   <si>
-    <t>variable/sleepTime</t>
-  </si>
-  <si>
     <t>snr.configFile</t>
   </si>
   <si>
@@ -376,6 +370,18 @@
   </si>
   <si>
     <t>testname/For 1</t>
+  </si>
+  <si>
+    <t>\$\{(?!__P\)[0-9A-Za-z_\-\.\,\ \/\\]+\}</t>
+  </si>
+  <si>
+    <t>variable/sleep time</t>
+  </si>
+  <si>
+    <t>c'mon back</t>
+  </si>
+  <si>
+    <t>spaces and slashes \\ / = . \, !@#\$%^&amp;</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1178,7 @@
   <dimension ref="A1:AAA39"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1276,7 +1282,7 @@
     </row>
     <row r="10" spans="1:703" ht="22" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="11" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>3</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="12" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="13" spans="1:703" ht="22" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
@@ -1324,10 +1330,10 @@
     </row>
     <row r="14" spans="1:703" ht="22" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1360,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1370,10 +1376,10 @@
     </row>
     <row r="18" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="19" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A19" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="21" spans="1:703" ht="22" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -1415,10 +1421,10 @@
     </row>
     <row r="22" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="23" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A23" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1436,10 +1442,10 @@
     </row>
     <row r="24" spans="1:703" ht="22" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1447,10 +1453,10 @@
     </row>
     <row r="25" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="26" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A26" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1468,10 +1474,10 @@
     </row>
     <row r="27" spans="1:703" ht="22" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1479,10 +1485,10 @@
     </row>
     <row r="28" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="29" spans="1:703" ht="22" customHeight="1" thickBot="1">
       <c r="A29" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1500,10 +1506,10 @@
     </row>
     <row r="30" spans="1:703" ht="22" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1511,74 +1517,74 @@
     </row>
     <row r="31" spans="1:703" ht="22" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:703" ht="22" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="22" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="22" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="22" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="22" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="22" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1616,7 @@
   <dimension ref="A1:AAA100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1624,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>22</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1704,7 +1710,7 @@
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="17" spans="1:2" ht="23" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="18" spans="1:2" ht="23" customHeight="1">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="19" spans="1:2" ht="23" customHeight="1">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="20" spans="1:2" ht="23" customHeight="1">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -1802,42 +1808,42 @@
     </row>
     <row r="21" spans="1:2" ht="23" customHeight="1">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>300</v>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23" customHeight="1">
       <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22">
-        <v>400</v>
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23" customHeight="1">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23" customHeight="1">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24">
-        <v>600</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23" customHeight="1">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23" customHeight="1"/>

--- a/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
+++ b/src/test/resources/showcase/artifact/data/jmeter-showcase.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/showcase/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF339D2B-FBD9-3E4F-9405-A570628FBD2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F24FF49-A406-8B43-865B-77D503F3E324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="440" windowWidth="17060" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34140" yWindow="460" windowWidth="17060" windowHeight="31560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="5" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>true</t>
   </si>
@@ -1613,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783F015A-CE5F-4244-AD84-1F1626A9E13B}">
-  <dimension ref="A1:AAA100"/>
+  <dimension ref="A1:AAA98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="17" spans="1:2" ht="23" customHeight="1">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1784,68 +1784,54 @@
     </row>
     <row r="18" spans="1:2" ht="23" customHeight="1">
       <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23" customHeight="1">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23" customHeight="1">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23" customHeight="1">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23" customHeight="1">
       <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23" customHeight="1">
       <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23" customHeight="1">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23" customHeight="1">
-      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="24" spans="1:2" ht="23" customHeight="1"/>
+    <row r="25" spans="1:2" ht="23" customHeight="1"/>
     <row r="26" spans="1:2" ht="23" customHeight="1"/>
     <row r="27" spans="1:2" ht="23" customHeight="1"/>
     <row r="28" spans="1:2" ht="23" customHeight="1"/>
@@ -1919,8 +1905,6 @@
     <row r="96" ht="23" customHeight="1"/>
     <row r="97" ht="23" customHeight="1"/>
     <row r="98" ht="23" customHeight="1"/>
-    <row r="99" ht="23" customHeight="1"/>
-    <row r="100" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
